--- a/src/nsblextracter/data/template.xlsx
+++ b/src/nsblextracter/data/template.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Desktop\Development\nsbl-create-spreadsheets\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Desktop\Development\nsbl-create-spreadsheets\src\nsblextracter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B616914-5C4E-4067-8708-4D9C012C3E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEE5E9E-2BE8-45CC-B809-88745C590258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{026AB82B-103F-4DF3-A0CA-05AA2F209D25}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{026AB82B-103F-4DF3-A0CA-05AA2F209D25}"/>
   </bookViews>
   <sheets>
-    <sheet name="runsheet" sheetId="5" r:id="rId1"/>
-    <sheet name="scoresheet" sheetId="10" r:id="rId2"/>
+    <sheet name="runsheet-k" sheetId="5" r:id="rId1"/>
+    <sheet name="runsheet-a" sheetId="11" r:id="rId2"/>
+    <sheet name="scoresheet" sheetId="10" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="79">
   <si>
     <t>COURT 1</t>
   </si>
@@ -254,13 +255,31 @@
   </si>
   <si>
     <t>GRADES _year_group_</t>
+  </si>
+  <si>
+    <t>7pm</t>
+  </si>
+  <si>
+    <t>745pm</t>
+  </si>
+  <si>
+    <t>_7_c1_s_</t>
+  </si>
+  <si>
+    <t>_7_c2_s_</t>
+  </si>
+  <si>
+    <t>_745_c1_s_</t>
+  </si>
+  <si>
+    <t>_745_c2_s_</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,13 +368,6 @@
     </font>
     <font>
       <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -909,7 +921,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1010,105 +1022,17 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1126,6 +1050,90 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1522,291 +1530,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06001A37-2C87-4F4D-8D59-4864FA219C19}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.85546875" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="50"/>
-    </row>
-    <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="49"/>
+    </row>
+    <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="D2" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="50"/>
-    </row>
-    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="49"/>
+    </row>
+    <row r="3" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="D3" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="50"/>
-    </row>
-    <row r="4" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="49"/>
+    </row>
+    <row r="4" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="D4" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="50"/>
-    </row>
-    <row r="5" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+    </row>
+    <row r="5" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="D5" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="50"/>
-    </row>
-    <row r="6" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="49"/>
+    </row>
+    <row r="6" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="D6" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="50"/>
-    </row>
-    <row r="7" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="49"/>
+    </row>
+    <row r="7" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="D7" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="50"/>
-    </row>
-    <row r="8" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="49"/>
+    </row>
+    <row r="8" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="D8" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="50"/>
-    </row>
-    <row r="9" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E8" s="49"/>
+    </row>
+    <row r="9" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="D9" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="50"/>
-    </row>
-    <row r="10" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E9" s="49"/>
+    </row>
+    <row r="10" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="D10" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="50"/>
-    </row>
-    <row r="11" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E10" s="49"/>
+    </row>
+    <row r="11" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="D11" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="50"/>
-    </row>
-    <row r="12" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-    </row>
-    <row r="13" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-    </row>
-    <row r="14" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-    </row>
-    <row r="15" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-    </row>
-    <row r="16" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-    </row>
-    <row r="17" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-    </row>
-    <row r="18" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-    </row>
-    <row r="19" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-    </row>
-    <row r="20" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
+      <c r="E11" s="49"/>
+    </row>
+    <row r="12" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+    </row>
+    <row r="13" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+    </row>
+    <row r="14" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+    </row>
+    <row r="15" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+    </row>
+    <row r="16" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+    </row>
+    <row r="17" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+    </row>
+    <row r="18" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+    </row>
+    <row r="19" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+    </row>
+    <row r="20" spans="4:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1815,13 +1796,142 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1BC4CC0-FE9D-498F-AEB1-D5F0C0522F79}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="33.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="49"/>
+    </row>
+    <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="49"/>
+    </row>
+    <row r="3" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="49"/>
+    </row>
+    <row r="4" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="49"/>
+    </row>
+    <row r="5" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="49"/>
+    </row>
+    <row r="6" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="49"/>
+    </row>
+    <row r="7" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="49"/>
+    </row>
+    <row r="8" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="49"/>
+    </row>
+    <row r="9" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A9" s="49"/>
+    </row>
+    <row r="10" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A10" s="49"/>
+    </row>
+    <row r="11" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A11" s="49"/>
+    </row>
+    <row r="12" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A12" s="49"/>
+    </row>
+    <row r="13" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+    </row>
+    <row r="14" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+    </row>
+    <row r="15" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+    </row>
+    <row r="16" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+    </row>
+    <row r="17" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+    </row>
+    <row r="18" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+    </row>
+    <row r="19" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+    </row>
+    <row r="20" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F774DF-630E-4CCD-B16A-123A9D720A00}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
@@ -1854,23 +1964,23 @@
       <c r="H1" s="45"/>
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
-      <c r="K1" s="84" t="s">
+      <c r="K1" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
       <c r="Z1" s="44"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -1879,24 +1989,24 @@
     </row>
     <row r="3" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
-      <c r="K3" s="86" t="s">
+      <c r="K3" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="S3" s="86" t="s">
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="S3" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
-      <c r="W3" s="86"/>
-      <c r="X3" s="86"/>
-      <c r="Y3" s="86"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
       <c r="Z3" s="42"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -1910,25 +2020,25 @@
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
       <c r="R4" s="26"/>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
       <c r="Z4" s="40"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -1942,25 +2052,25 @@
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
-      <c r="K5" s="88" t="s">
+      <c r="K5" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
       <c r="R5" s="26"/>
-      <c r="S5" s="88" t="s">
+      <c r="S5" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="T5" s="88"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="88"/>
-      <c r="X5" s="88"/>
-      <c r="Y5" s="88"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="58"/>
       <c r="Z5" s="40"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -1974,25 +2084,25 @@
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
-      <c r="K6" s="89" t="s">
+      <c r="K6" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
       <c r="R6" s="26"/>
-      <c r="S6" s="89" t="s">
+      <c r="S6" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="T6" s="89"/>
-      <c r="U6" s="89"/>
-      <c r="V6" s="89"/>
-      <c r="W6" s="89"/>
-      <c r="X6" s="89"/>
-      <c r="Y6" s="89"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
       <c r="Z6" s="40"/>
     </row>
     <row r="7" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2007,18 +2117,18 @@
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
       <c r="K7" s="26"/>
-      <c r="L7" s="78" t="s">
+      <c r="L7" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="60"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="62"/>
       <c r="P7" s="26"/>
-      <c r="Q7" s="61" t="s">
+      <c r="Q7" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="R7" s="59"/>
-      <c r="S7" s="60"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="62"/>
       <c r="T7" s="26"/>
       <c r="U7" s="26"/>
       <c r="V7" s="26"/>
@@ -2028,33 +2138,33 @@
       <c r="Z7" s="40"/>
     </row>
     <row r="8" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="68" t="s">
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="79"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="68"/>
       <c r="K8" s="26"/>
-      <c r="L8" s="80" t="s">
+      <c r="L8" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="80"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
       <c r="P8" s="26"/>
-      <c r="Q8" s="80" t="s">
+      <c r="Q8" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="R8" s="80"/>
-      <c r="S8" s="80"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
       <c r="T8" s="26"/>
       <c r="U8" s="41"/>
       <c r="V8" s="26"/>
@@ -2078,24 +2188,24 @@
       <c r="H9" s="72"/>
       <c r="I9" s="72"/>
       <c r="J9" s="73"/>
-      <c r="K9" s="81" t="s">
+      <c r="K9" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="82"/>
-      <c r="T9" s="82"/>
-      <c r="U9" s="82"/>
-      <c r="V9" s="82"/>
-      <c r="W9" s="82"/>
-      <c r="X9" s="82"/>
-      <c r="Y9" s="82"/>
-      <c r="Z9" s="83"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="75"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="75"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="75"/>
+      <c r="Y9" s="75"/>
+      <c r="Z9" s="76"/>
     </row>
     <row r="10" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
@@ -2118,38 +2228,38 @@
         <v>4</v>
       </c>
       <c r="J10" s="25"/>
-      <c r="K10" s="74" t="s">
+      <c r="K10" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75" t="s">
+      <c r="L10" s="78"/>
+      <c r="M10" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="76"/>
-      <c r="O10" s="74" t="s">
+      <c r="N10" s="79"/>
+      <c r="O10" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75" t="s">
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="76"/>
-      <c r="S10" s="74" t="s">
+      <c r="R10" s="79"/>
+      <c r="S10" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="T10" s="75"/>
-      <c r="U10" s="75" t="s">
+      <c r="T10" s="78"/>
+      <c r="U10" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="V10" s="76"/>
-      <c r="W10" s="74" t="s">
+      <c r="V10" s="79"/>
+      <c r="W10" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="75" t="s">
+      <c r="X10" s="78"/>
+      <c r="Y10" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Z10" s="76"/>
+      <c r="Z10" s="79"/>
     </row>
     <row r="11" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
@@ -2356,18 +2466,18 @@
       <c r="Z14" s="18"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
-      <c r="B15" s="77"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="81"/>
       <c r="C15" s="26"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
-      <c r="F15" s="61" t="s">
+      <c r="F15" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
       <c r="K15" s="19"/>
       <c r="L15" s="10">
         <v>5</v>
@@ -2402,15 +2512,15 @@
       <c r="Z15" s="18"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="64" t="s">
+      <c r="B16" s="61"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="65"/>
+      <c r="E16" s="83"/>
       <c r="F16" s="24">
         <v>1</v>
       </c>
@@ -2460,15 +2570,15 @@
       <c r="Z16" s="18"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="61" t="s">
+      <c r="B17" s="61"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="60"/>
+      <c r="E17" s="62"/>
       <c r="F17" s="21"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -2508,11 +2618,11 @@
       <c r="Z17" s="18"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="58"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="60"/>
+      <c r="A18" s="80"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="62"/>
       <c r="F18" s="21"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -2552,11 +2662,11 @@
       <c r="Z18" s="18"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="58"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="60"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="62"/>
       <c r="F19" s="21"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -2596,11 +2706,11 @@
       <c r="Z19" s="18"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="58"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="60"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="62"/>
       <c r="F20" s="21"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
@@ -2640,11 +2750,11 @@
       <c r="Z20" s="18"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="58"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="60"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="62"/>
       <c r="F21" s="21"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
@@ -2684,11 +2794,11 @@
       <c r="Z21" s="18"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="58"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="60"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="62"/>
       <c r="F22" s="21"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -2728,11 +2838,11 @@
       <c r="Z22" s="18"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="58"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="60"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="62"/>
       <c r="F23" s="21"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
@@ -2772,11 +2882,11 @@
       <c r="Z23" s="18"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="58"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="60"/>
+      <c r="A24" s="80"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="62"/>
       <c r="F24" s="21"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -2816,11 +2926,11 @@
       <c r="Z24" s="18"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="58"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="60"/>
+      <c r="A25" s="80"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="62"/>
       <c r="F25" s="21"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -2860,11 +2970,11 @@
       <c r="Z25" s="18"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="58"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="60"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="62"/>
       <c r="F26" s="21"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -2904,11 +3014,11 @@
       <c r="Z26" s="18"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="58"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="60"/>
+      <c r="A27" s="80"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="62"/>
       <c r="F27" s="21"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -2948,11 +3058,11 @@
       <c r="Z27" s="18"/>
     </row>
     <row r="28" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="60"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="62"/>
       <c r="F28" s="21"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -2992,20 +3102,20 @@
       <c r="Z28" s="18"/>
     </row>
     <row r="29" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="66" t="s">
+      <c r="A29" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="68" t="s">
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
       <c r="K29" s="19"/>
       <c r="L29" s="10">
         <v>19</v>
@@ -3346,18 +3456,18 @@
       <c r="Z35" s="18"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="58"/>
-      <c r="B36" s="63"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="84"/>
       <c r="C36" s="26"/>
       <c r="D36" s="25"/>
       <c r="E36" s="25"/>
-      <c r="F36" s="61" t="s">
+      <c r="F36" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
       <c r="K36" s="19"/>
       <c r="L36" s="10">
         <v>26</v>
@@ -3392,15 +3502,15 @@
       <c r="Z36" s="18"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="61" t="s">
+      <c r="A37" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="59"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="64" t="s">
+      <c r="B37" s="61"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="65"/>
+      <c r="E37" s="83"/>
       <c r="F37" s="24">
         <v>1</v>
       </c>
@@ -3450,15 +3560,15 @@
       <c r="Z37" s="18"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="58" t="s">
+      <c r="A38" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="59"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="61" t="s">
+      <c r="B38" s="61"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="60"/>
+      <c r="E38" s="62"/>
       <c r="F38" s="21"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
@@ -3498,11 +3608,11 @@
       <c r="Z38" s="18"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="58"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="60"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="62"/>
       <c r="F39" s="21"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
@@ -3542,11 +3652,11 @@
       <c r="Z39" s="18"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="58"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="60"/>
+      <c r="A40" s="80"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="62"/>
       <c r="F40" s="21"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
@@ -3586,11 +3696,11 @@
       <c r="Z40" s="18"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="58"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="60"/>
+      <c r="A41" s="80"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="62"/>
       <c r="F41" s="21"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
@@ -3630,11 +3740,11 @@
       <c r="Z41" s="18"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A42" s="58"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="60"/>
+      <c r="A42" s="80"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="62"/>
       <c r="F42" s="21"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
@@ -3674,11 +3784,11 @@
       <c r="Z42" s="18"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A43" s="58"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="60"/>
+      <c r="A43" s="80"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="62"/>
       <c r="F43" s="21"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -3718,11 +3828,11 @@
       <c r="Z43" s="18"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A44" s="58"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="60"/>
+      <c r="A44" s="80"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="62"/>
       <c r="F44" s="21"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
@@ -3762,11 +3872,11 @@
       <c r="Z44" s="18"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A45" s="58"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="60"/>
+      <c r="A45" s="80"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="62"/>
       <c r="F45" s="21"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -3806,11 +3916,11 @@
       <c r="Z45" s="18"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A46" s="58"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="60"/>
+      <c r="A46" s="80"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="62"/>
       <c r="F46" s="21"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
@@ -3850,11 +3960,11 @@
       <c r="Z46" s="18"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A47" s="58"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="60"/>
+      <c r="A47" s="80"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="62"/>
       <c r="F47" s="21"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
@@ -3894,11 +4004,11 @@
       <c r="Z47" s="18"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A48" s="58"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="60"/>
+      <c r="A48" s="80"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="62"/>
       <c r="F48" s="21"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
@@ -3938,11 +4048,11 @@
       <c r="Z48" s="18"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A49" s="58"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="60"/>
+      <c r="A49" s="80"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="62"/>
       <c r="F49" s="21"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
@@ -3983,11 +4093,11 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="17"/>
-      <c r="B50" s="62" t="s">
+      <c r="B50" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="85"/>
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
@@ -4029,21 +4139,21 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="12"/>
-      <c r="B51" s="56" t="s">
+      <c r="B51" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="86"/>
       <c r="E51" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
+      <c r="F51" s="86"/>
+      <c r="G51" s="86"/>
       <c r="H51" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I51" s="56"/>
-      <c r="J51" s="56"/>
+      <c r="I51" s="86"/>
+      <c r="J51" s="86"/>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
@@ -4063,78 +4173,78 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="11"/>
-      <c r="B52" s="56" t="s">
+      <c r="B52" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="86"/>
       <c r="E52" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
       <c r="H52" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I52" s="56"/>
-      <c r="J52" s="56"/>
+      <c r="I52" s="86"/>
+      <c r="J52" s="86"/>
       <c r="K52" s="10"/>
-      <c r="L52" s="57" t="s">
+      <c r="L52" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="M52" s="57"/>
-      <c r="N52" s="57"/>
-      <c r="O52" s="57"/>
-      <c r="P52" s="56" t="s">
+      <c r="M52" s="87"/>
+      <c r="N52" s="87"/>
+      <c r="O52" s="87"/>
+      <c r="P52" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="Q52" s="56"/>
-      <c r="R52" s="56"/>
-      <c r="S52" s="56"/>
-      <c r="T52" s="56"/>
-      <c r="U52" s="56" t="s">
+      <c r="Q52" s="86"/>
+      <c r="R52" s="86"/>
+      <c r="S52" s="86"/>
+      <c r="T52" s="86"/>
+      <c r="U52" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="V52" s="56"/>
-      <c r="W52" s="56"/>
-      <c r="X52" s="56"/>
-      <c r="Y52" s="56"/>
+      <c r="V52" s="86"/>
+      <c r="W52" s="86"/>
+      <c r="X52" s="86"/>
+      <c r="Y52" s="86"/>
       <c r="Z52" s="10"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="11"/>
-      <c r="B53" s="57" t="s">
+      <c r="B53" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
+      <c r="C53" s="87"/>
+      <c r="D53" s="87"/>
       <c r="E53" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="H53" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I53" s="56"/>
-      <c r="J53" s="56"/>
-      <c r="K53" s="57" t="s">
+      <c r="I53" s="86"/>
+      <c r="J53" s="86"/>
+      <c r="K53" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="L53" s="57"/>
-      <c r="M53" s="57"/>
-      <c r="N53" s="57"/>
-      <c r="O53" s="57"/>
-      <c r="P53" s="57"/>
-      <c r="Q53" s="57"/>
-      <c r="R53" s="56"/>
-      <c r="S53" s="56"/>
-      <c r="T53" s="56"/>
-      <c r="U53" s="56"/>
-      <c r="V53" s="56"/>
-      <c r="W53" s="56"/>
-      <c r="X53" s="56"/>
-      <c r="Y53" s="56"/>
+      <c r="L53" s="87"/>
+      <c r="M53" s="87"/>
+      <c r="N53" s="87"/>
+      <c r="O53" s="87"/>
+      <c r="P53" s="87"/>
+      <c r="Q53" s="87"/>
+      <c r="R53" s="86"/>
+      <c r="S53" s="86"/>
+      <c r="T53" s="86"/>
+      <c r="U53" s="86"/>
+      <c r="V53" s="86"/>
+      <c r="W53" s="86"/>
+      <c r="X53" s="86"/>
+      <c r="Y53" s="86"/>
       <c r="Z53" s="10"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.2">
@@ -4266,93 +4376,6 @@
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="K1:Y1"/>
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="S3:Y3"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="S4:Y4"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="S6:Y6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="K9:Z9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:D50"/>
     <mergeCell ref="U52:W52"/>
     <mergeCell ref="X52:Y52"/>
     <mergeCell ref="B53:D53"/>
@@ -4369,6 +4392,93 @@
     <mergeCell ref="L52:O52"/>
     <mergeCell ref="P52:R52"/>
     <mergeCell ref="S52:T52"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="K9:Z9"/>
+    <mergeCell ref="K1:Y1"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="S4:Y4"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="S6:Y6"/>
   </mergeCells>
   <pageMargins left="0.47" right="0.36" top="0.47" bottom="0.21" header="0.2" footer="0.21"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/nsblextracter/data/template.xlsx
+++ b/src/nsblextracter/data/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Desktop\Development\nsbl-create-spreadsheets\src\nsblextracter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEE5E9E-2BE8-45CC-B809-88745C590258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1A473E-7E28-4118-A7E1-91B32965968E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{026AB82B-103F-4DF3-A0CA-05AA2F209D25}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{026AB82B-103F-4DF3-A0CA-05AA2F209D25}"/>
   </bookViews>
   <sheets>
     <sheet name="runsheet-k" sheetId="5" r:id="rId1"/>
@@ -1034,6 +1034,90 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1050,90 +1134,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1532,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06001A37-2C87-4F4D-8D59-4864FA219C19}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1790,8 +1790,9 @@
       <c r="E20" s="49"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1799,8 +1800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1BC4CC0-FE9D-498F-AEB1-D5F0C0522F79}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E16" sqref="E15:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1919,8 +1920,12 @@
       <c r="B20" s="49"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="2" max="2" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
@@ -1932,7 +1937,7 @@
   <dimension ref="A1:Z61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+      <selection activeCell="AD20" sqref="AD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1964,23 +1969,23 @@
       <c r="H1" s="45"/>
       <c r="I1" s="45"/>
       <c r="J1" s="45"/>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
       <c r="Z1" s="44"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -1989,24 +1994,24 @@
     </row>
     <row r="3" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="43"/>
-      <c r="K3" s="56" t="s">
+      <c r="K3" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="S3" s="56" t="s">
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="S3" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84"/>
       <c r="Z3" s="42"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -2020,25 +2025,25 @@
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
       <c r="R4" s="26"/>
-      <c r="S4" s="57" t="s">
+      <c r="S4" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
       <c r="Z4" s="40"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -2052,25 +2057,25 @@
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
-      <c r="K5" s="58" t="s">
+      <c r="K5" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
       <c r="R5" s="26"/>
-      <c r="S5" s="58" t="s">
+      <c r="S5" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="T5" s="58"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="58"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="86"/>
+      <c r="X5" s="86"/>
+      <c r="Y5" s="86"/>
       <c r="Z5" s="40"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -2084,25 +2089,25 @@
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
-      <c r="K6" s="59" t="s">
+      <c r="K6" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
       <c r="R6" s="26"/>
-      <c r="S6" s="59" t="s">
+      <c r="S6" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
+      <c r="T6" s="87"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="87"/>
+      <c r="W6" s="87"/>
+      <c r="X6" s="87"/>
+      <c r="Y6" s="87"/>
       <c r="Z6" s="40"/>
     </row>
     <row r="7" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2117,18 +2122,18 @@
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
       <c r="K7" s="26"/>
-      <c r="L7" s="60" t="s">
+      <c r="L7" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="62"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="58"/>
       <c r="P7" s="26"/>
-      <c r="Q7" s="63" t="s">
+      <c r="Q7" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="R7" s="61"/>
-      <c r="S7" s="62"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="58"/>
       <c r="T7" s="26"/>
       <c r="U7" s="26"/>
       <c r="V7" s="26"/>
@@ -2151,20 +2156,20 @@
       <c r="G8" s="67"/>
       <c r="H8" s="67"/>
       <c r="I8" s="67"/>
-      <c r="J8" s="68"/>
+      <c r="J8" s="77"/>
       <c r="K8" s="26"/>
-      <c r="L8" s="69" t="s">
+      <c r="L8" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
       <c r="P8" s="26"/>
-      <c r="Q8" s="69" t="s">
+      <c r="Q8" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="R8" s="69"/>
-      <c r="S8" s="69"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="78"/>
       <c r="T8" s="26"/>
       <c r="U8" s="41"/>
       <c r="V8" s="26"/>
@@ -2174,38 +2179,38 @@
       <c r="Z8" s="40"/>
     </row>
     <row r="9" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="25"/>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="74" t="s">
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="75"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="75"/>
-      <c r="V9" s="75"/>
-      <c r="W9" s="75"/>
-      <c r="X9" s="75"/>
-      <c r="Y9" s="75"/>
-      <c r="Z9" s="76"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="80"/>
+      <c r="X9" s="80"/>
+      <c r="Y9" s="80"/>
+      <c r="Z9" s="81"/>
     </row>
     <row r="10" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
@@ -2228,38 +2233,38 @@
         <v>4</v>
       </c>
       <c r="J10" s="25"/>
-      <c r="K10" s="77" t="s">
+      <c r="K10" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78" t="s">
+      <c r="L10" s="73"/>
+      <c r="M10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="79"/>
-      <c r="O10" s="77" t="s">
+      <c r="N10" s="74"/>
+      <c r="O10" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78" t="s">
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="79"/>
-      <c r="S10" s="77" t="s">
+      <c r="R10" s="74"/>
+      <c r="S10" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="T10" s="78"/>
-      <c r="U10" s="78" t="s">
+      <c r="T10" s="73"/>
+      <c r="U10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="V10" s="79"/>
-      <c r="W10" s="77" t="s">
+      <c r="V10" s="74"/>
+      <c r="W10" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="78" t="s">
+      <c r="X10" s="73"/>
+      <c r="Y10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Z10" s="79"/>
+      <c r="Z10" s="74"/>
     </row>
     <row r="11" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
@@ -2466,18 +2471,18 @@
       <c r="Z14" s="18"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="80"/>
-      <c r="B15" s="81"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="75"/>
       <c r="C15" s="26"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
-      <c r="F15" s="63" t="s">
+      <c r="F15" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
       <c r="K15" s="19"/>
       <c r="L15" s="10">
         <v>5</v>
@@ -2512,15 +2517,15 @@
       <c r="Z15" s="18"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="82" t="s">
+      <c r="B16" s="57"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="83"/>
+      <c r="E16" s="63"/>
       <c r="F16" s="24">
         <v>1</v>
       </c>
@@ -2570,15 +2575,15 @@
       <c r="Z16" s="18"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="63" t="s">
+      <c r="B17" s="57"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="62"/>
+      <c r="E17" s="58"/>
       <c r="F17" s="21"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -2618,11 +2623,11 @@
       <c r="Z17" s="18"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="80"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="62"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="58"/>
       <c r="F18" s="21"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -2662,11 +2667,11 @@
       <c r="Z18" s="18"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="80"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="62"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="58"/>
       <c r="F19" s="21"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -2706,11 +2711,11 @@
       <c r="Z19" s="18"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="80"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="62"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="58"/>
       <c r="F20" s="21"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
@@ -2750,11 +2755,11 @@
       <c r="Z20" s="18"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="80"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="62"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="58"/>
       <c r="F21" s="21"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
@@ -2794,11 +2799,11 @@
       <c r="Z21" s="18"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="80"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="62"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="21"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -2838,11 +2843,11 @@
       <c r="Z22" s="18"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="80"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="62"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="58"/>
       <c r="F23" s="21"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
@@ -2882,11 +2887,11 @@
       <c r="Z23" s="18"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="80"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="62"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="58"/>
       <c r="F24" s="21"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -2926,11 +2931,11 @@
       <c r="Z24" s="18"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="80"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="62"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="58"/>
       <c r="F25" s="21"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -2970,11 +2975,11 @@
       <c r="Z25" s="18"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="80"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="62"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="58"/>
       <c r="F26" s="21"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -3014,11 +3019,11 @@
       <c r="Z26" s="18"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="80"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="62"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="58"/>
       <c r="F27" s="21"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -3058,11 +3063,11 @@
       <c r="Z27" s="18"/>
     </row>
     <row r="28" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="80"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="62"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="58"/>
       <c r="F28" s="21"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -3150,20 +3155,20 @@
       <c r="Z29" s="18"/>
     </row>
     <row r="30" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="70" t="s">
+      <c r="A30" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
       <c r="D30" s="25"/>
-      <c r="E30" s="72" t="s">
+      <c r="E30" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="73"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="71"/>
       <c r="K30" s="19"/>
       <c r="L30" s="10">
         <v>20</v>
@@ -3456,18 +3461,18 @@
       <c r="Z35" s="18"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="80"/>
-      <c r="B36" s="84"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="61"/>
       <c r="C36" s="26"/>
       <c r="D36" s="25"/>
       <c r="E36" s="25"/>
-      <c r="F36" s="63" t="s">
+      <c r="F36" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
       <c r="K36" s="19"/>
       <c r="L36" s="10">
         <v>26</v>
@@ -3502,15 +3507,15 @@
       <c r="Z36" s="18"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="63" t="s">
+      <c r="A37" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="61"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="82" t="s">
+      <c r="B37" s="57"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="83"/>
+      <c r="E37" s="63"/>
       <c r="F37" s="24">
         <v>1</v>
       </c>
@@ -3560,15 +3565,15 @@
       <c r="Z37" s="18"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="80" t="s">
+      <c r="A38" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="61"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="63" t="s">
+      <c r="B38" s="57"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="62"/>
+      <c r="E38" s="58"/>
       <c r="F38" s="21"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
@@ -3608,11 +3613,11 @@
       <c r="Z38" s="18"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="80"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="62"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="58"/>
       <c r="F39" s="21"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
@@ -3652,11 +3657,11 @@
       <c r="Z39" s="18"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="80"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="62"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="58"/>
       <c r="F40" s="21"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
@@ -3696,11 +3701,11 @@
       <c r="Z40" s="18"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="80"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="62"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="58"/>
       <c r="F41" s="21"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
@@ -3740,11 +3745,11 @@
       <c r="Z41" s="18"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A42" s="80"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="62"/>
+      <c r="A42" s="56"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="58"/>
       <c r="F42" s="21"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
@@ -3784,11 +3789,11 @@
       <c r="Z42" s="18"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A43" s="80"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="62"/>
+      <c r="A43" s="56"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="58"/>
       <c r="F43" s="21"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -3828,11 +3833,11 @@
       <c r="Z43" s="18"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A44" s="80"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="62"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="58"/>
       <c r="F44" s="21"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
@@ -3872,11 +3877,11 @@
       <c r="Z44" s="18"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A45" s="80"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="62"/>
+      <c r="A45" s="56"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="58"/>
       <c r="F45" s="21"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -3916,11 +3921,11 @@
       <c r="Z45" s="18"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A46" s="80"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="62"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="58"/>
       <c r="F46" s="21"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
@@ -3960,11 +3965,11 @@
       <c r="Z46" s="18"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A47" s="80"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="62"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="58"/>
       <c r="F47" s="21"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
@@ -4004,11 +4009,11 @@
       <c r="Z47" s="18"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A48" s="80"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="62"/>
+      <c r="A48" s="56"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="58"/>
       <c r="F48" s="21"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
@@ -4048,11 +4053,11 @@
       <c r="Z48" s="18"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A49" s="80"/>
-      <c r="B49" s="61"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="62"/>
+      <c r="A49" s="56"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="58"/>
       <c r="F49" s="21"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
@@ -4093,11 +4098,11 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="17"/>
-      <c r="B50" s="85" t="s">
+      <c r="B50" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="85"/>
-      <c r="D50" s="85"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
@@ -4139,21 +4144,21 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="12"/>
-      <c r="B51" s="86" t="s">
+      <c r="B51" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="86"/>
-      <c r="D51" s="86"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
       <c r="E51" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F51" s="86"/>
-      <c r="G51" s="86"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
       <c r="H51" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I51" s="86"/>
-      <c r="J51" s="86"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
@@ -4173,78 +4178,78 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="11"/>
-      <c r="B52" s="86" t="s">
+      <c r="B52" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="86"/>
-      <c r="D52" s="86"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
       <c r="E52" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="86"/>
-      <c r="G52" s="86"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
       <c r="H52" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I52" s="86"/>
-      <c r="J52" s="86"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
       <c r="K52" s="10"/>
-      <c r="L52" s="87" t="s">
+      <c r="L52" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="M52" s="87"/>
-      <c r="N52" s="87"/>
-      <c r="O52" s="87"/>
-      <c r="P52" s="86" t="s">
+      <c r="M52" s="55"/>
+      <c r="N52" s="55"/>
+      <c r="O52" s="55"/>
+      <c r="P52" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="Q52" s="86"/>
-      <c r="R52" s="86"/>
-      <c r="S52" s="86"/>
-      <c r="T52" s="86"/>
-      <c r="U52" s="86" t="s">
+      <c r="Q52" s="54"/>
+      <c r="R52" s="54"/>
+      <c r="S52" s="54"/>
+      <c r="T52" s="54"/>
+      <c r="U52" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="V52" s="86"/>
-      <c r="W52" s="86"/>
-      <c r="X52" s="86"/>
-      <c r="Y52" s="86"/>
+      <c r="V52" s="54"/>
+      <c r="W52" s="54"/>
+      <c r="X52" s="54"/>
+      <c r="Y52" s="54"/>
       <c r="Z52" s="10"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="11"/>
-      <c r="B53" s="87" t="s">
+      <c r="B53" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="87"/>
-      <c r="D53" s="87"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
       <c r="E53" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F53" s="86"/>
-      <c r="G53" s="86"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
       <c r="H53" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I53" s="86"/>
-      <c r="J53" s="86"/>
-      <c r="K53" s="87" t="s">
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="L53" s="87"/>
-      <c r="M53" s="87"/>
-      <c r="N53" s="87"/>
-      <c r="O53" s="87"/>
-      <c r="P53" s="87"/>
-      <c r="Q53" s="87"/>
-      <c r="R53" s="86"/>
-      <c r="S53" s="86"/>
-      <c r="T53" s="86"/>
-      <c r="U53" s="86"/>
-      <c r="V53" s="86"/>
-      <c r="W53" s="86"/>
-      <c r="X53" s="86"/>
-      <c r="Y53" s="86"/>
+      <c r="L53" s="55"/>
+      <c r="M53" s="55"/>
+      <c r="N53" s="55"/>
+      <c r="O53" s="55"/>
+      <c r="P53" s="55"/>
+      <c r="Q53" s="55"/>
+      <c r="R53" s="54"/>
+      <c r="S53" s="54"/>
+      <c r="T53" s="54"/>
+      <c r="U53" s="54"/>
+      <c r="V53" s="54"/>
+      <c r="W53" s="54"/>
+      <c r="X53" s="54"/>
+      <c r="Y53" s="54"/>
       <c r="Z53" s="10"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.2">
@@ -4376,6 +4381,93 @@
     </row>
   </sheetData>
   <mergeCells count="103">
+    <mergeCell ref="K1:Y1"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="S4:Y4"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="S6:Y6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="K9:Z9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:D50"/>
     <mergeCell ref="U52:W52"/>
     <mergeCell ref="X52:Y52"/>
     <mergeCell ref="B53:D53"/>
@@ -4392,95 +4484,9 @@
     <mergeCell ref="L52:O52"/>
     <mergeCell ref="P52:R52"/>
     <mergeCell ref="S52:T52"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="K9:Z9"/>
-    <mergeCell ref="K1:Y1"/>
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="S3:Y3"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="S4:Y4"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="S6:Y6"/>
   </mergeCells>
-  <pageMargins left="0.47" right="0.36" top="0.47" bottom="0.21" header="0.2" footer="0.21"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.47244094488188981" right="0.35433070866141736" top="0.47244094488188981" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
